--- a/INDIVIDUAL_ARGUMENTS/common_good_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/common_good_contra.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>#id</t>
   </si>
@@ -29,192 +28,288 @@
     <t>A personal pursuit is a better endeavor because you are fulfilling something within yourself. It is important to help others but there is a time to do so. Achieving a personal goal is a journey to fulfillment where one is truly happy. Before helping others you must remember about yourself, but you must not forget about those who are really in need.</t>
   </si>
   <si>
+    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
+  </si>
+  <si>
     <t>arg33101</t>
   </si>
   <si>
     <t>Personal pursuit is better because people will be people and want to be the best they can be and they want to be on the top. I know I want to be a "winner". Which by this happening it means that someone has to be a loser. This is personal pursuit.</t>
   </si>
   <si>
+    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33125</t>
   </si>
   <si>
     <t>I think that focusing on a personal persuit comes first, going to college, having a career, and reaching a position of power. I don't think there really is a day when you will announce to the world that your going to advance the common good, but you can help people here and there, donating a little bit of time, donating a little money, but in the end if your ever in the position of power and have money you could truly advance the common good.</t>
   </si>
   <si>
+    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33053</t>
   </si>
   <si>
     <t>In my personal opinion if you better yourself in the long run you can better the world. I mean you have to focus on yourself before you can take on the problems of the world and trying to fix them, or you will end up having a break down or something.</t>
   </si>
   <si>
+    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33070</t>
   </si>
   <si>
     <t>I believe it is more important to have personal pursuit because if you even want to begin to help others you have to help yourself. It's not bad to want to help the common good but if you're always putting other people before yourself you may start to forget about your own needs and wants in life. But I do think that you can have a balance of both.</t>
   </si>
   <si>
+    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33121</t>
   </si>
   <si>
     <t>Our animal insctinc is survival, its what makes us flinch wen we see something coming at ous it makes us react faster, our mental state changes. In todays post modern world, our instinc have change into keep obtaining money to keep ous alive. times change but our desire to survive above other is still thier.</t>
   </si>
   <si>
+    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
+  </si>
+  <si>
     <t>arg33115</t>
   </si>
   <si>
     <t>I think i will go with personal persuit because no matter what we do we think of ourself first. I think its the human nature.But personal pursuit does not mean being selfish and only caring about oneself.I need to think about me first,success and then think of others. Everyone does think of themselves before thinking about others. First i need to make me happy to make others happy. This way i can make my life better and be who i am.</t>
   </si>
   <si>
+    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
+  </si>
+  <si>
     <t>arg33102</t>
   </si>
   <si>
     <t>Unfortunately it is human nature to be selfish. This doesn't always mean that you are going to be a mean person and always do what is best for you, but an individual will usually help himself first. Sometimes in a good situation going out on your own personal pursuit does advance the common good. Neither is necessarily better but I believe that a personal pursuit might be more useful we only live this life for so long and we want to be the best we can be. Maybe your personal pursuit is to advance the common good.</t>
   </si>
   <si>
+    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33145</t>
   </si>
   <si>
     <t>I feel that a personal pursuit is a better endeavor. Your personal pursuit should come first before anyone else's. But then again I really don't know, because if someone in your family is in need of something then you're going to do anything help that family member out. I believe that helping someone in your family is just something you do no matter what because they're blood. If someone who you don't know is in need at the same time as someone who is related to you, you're going to help the family member out instead of the random person you don't know.</t>
   </si>
   <si>
+    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33167</t>
   </si>
   <si>
     <t>I believe that personal pursuit is better because in order to help others you have to help yoursel first. I also think that if you are happy with yourself and enjoy helping others you have the confidence and strength to help the outside world while satisfying yourself. For example, someone wants to succeed in life and through that he achieves his goals, whenever he is already succesful and with money he decides to help others.</t>
   </si>
   <si>
+    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33088</t>
   </si>
   <si>
     <t>I feel like it is better to do both, but in order to help others you need to help yourself. It all starts with your personal goals before you can help others.</t>
   </si>
   <si>
+    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33173</t>
   </si>
   <si>
     <t>A personal pursuit is more important to me, because every person is responsible for themselves and their own actions. Advancing the common good would just mean that one or two people may not have to work as hard as you would for the same thing because of something you may have done. A personal pursuit can never be inequal. You'll always be able to dig yourself as deep into a hole as you want to, but standing as one person rather than many, you could probably dig faster if you were alone.</t>
   </si>
   <si>
+    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33073</t>
   </si>
   <si>
     <t>I believe a personal pursuit is better for me because I'm more of a selfish person. I rather do something that is going to better my life, but every once in a while I do have my giving moments, so I guess it depends on how I am feeling. Right now I am going to go for the personal pursuit.</t>
   </si>
   <si>
+    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33123</t>
   </si>
   <si>
     <t>In order to help advance a common good, you must first realize what is your common good. You have to know when you are that better person to then spread your good to other people. You can't just assume that you are a great person if you don't have anything to show it. If you desire to see a world full of all this goodness, YOU have to be that spark that starts the fire.</t>
   </si>
   <si>
+    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
+  </si>
+  <si>
     <t>arg33157</t>
   </si>
   <si>
     <t>If i say that advencing the commen good is better then a personal pursuit, then i would be lieing to myself. Everyone wants to do good in the world, but the problem with that is that their is too many bad things happening in the world, and what you do wont really make a difference. A personal persuit does more for you then trying to advance the commen good in a world where you see very little good.</t>
   </si>
   <si>
+    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33165</t>
   </si>
   <si>
     <t>Personal pursuit is better because its easier to help yourself then it is to help others. Plus not all people want to be helped. A persons' need is more important then others need, you need to your personal pursuits first. In this world you have to fight for what you want.</t>
   </si>
   <si>
+    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33126</t>
   </si>
   <si>
     <t>Helping others for the common good can give you a feeling of pride but you have to have the means to be able to help the other person. To have those means you first have to have personal pursuit. I don't think one is better than the other but you first have to have personal pursuit before you can have common good. However for some people their personal pursuit can be the advancement of the common good.</t>
   </si>
   <si>
+    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33054</t>
   </si>
   <si>
     <t>I believe personal persuit. Human nature is for someone to persue things for themselves, not for others.</t>
   </si>
   <si>
+    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33105</t>
   </si>
   <si>
     <t>it is better to help yourself before you can help others. for instance, if you don't have your life together how are you going to help someone else with theirs. if your still living at home with your mother and you don't have a job and one want to help out by giving to an organization you couldn't do it. so basically you have to help yourself before you can help others.</t>
   </si>
   <si>
+    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33128</t>
   </si>
   <si>
     <t>Well for me its a kind of a 50/50. I think that evryone should be less selfish and do things that are "advancing the common good", but then again on the other hand we live in the real world and we are going to things that better benifit us. For example in your job your not going to try to make another employe, your going to try to make yourself look good so that you will get more money.</t>
   </si>
   <si>
+    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33142</t>
   </si>
   <si>
     <t>Personally i think that if you are not helping yourself you cant help no one else. If you try to help every person that needs your help, they will just slow you down. Don't get me wrong helping people is always right. In the big picture if you pursuit your dreams and get rich, fame, and power you will be able to help the people that matter to you.</t>
   </si>
   <si>
+    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33058</t>
   </si>
   <si>
     <t>I believe that personal pursuit is better because one must themselves happy before they can go out into the world and try to make everyone else happy. If you try to make everyone else happy and you leave no time for you, then you become a wreak and then you have no happiness in your life. Some people find that helping others is their own pursuit of happiness.</t>
   </si>
   <si>
+    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
+  </si>
+  <si>
     <t>arg33091</t>
   </si>
   <si>
     <t>A personal pursuit of mine has always been to be the best pole vaulter that I can be, or the best at anything you do. I have learned that while trying to achieve this personal goal I have learned so much about trying to be a more responsible and more obedient. I believe in pursuing personal pursuit and personal goals is a better endeavor simply because if you strive to be good at something, it will help you grow as a person. From my personal experience, pursuing a personal goal has helped other people in this world.</t>
   </si>
   <si>
+    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
+  </si>
+  <si>
     <t>arg33158</t>
   </si>
   <si>
     <t>Obviously everybody wants to say that they would help mankind, the world or save the city, but only a small percent of people would actually do this. I honestly would like to help mankind. I would like to save the world, but I'm posting under personal pursuit because I do not know what I would do in one of these situations.  Anyway, if people did believe in the advancement of the common good all of the economical cars and factories wouldn't just now be made. These inventions would have come out as soon as the theory of global warming came out.</t>
   </si>
   <si>
+    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33127</t>
   </si>
   <si>
     <t>I think that personal pursuit is more important because in order to help others you have to help yourself first. At the time it may seem selfish but once that you get to a point that you are good at what your doing then you can help others do the same. So not only are you helping yourself but you are also helping others.</t>
   </si>
   <si>
+    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33159</t>
   </si>
   <si>
     <t>I believe that Personal pursuit is better because its more about you then it is about other people. if you cant focus on you personally how can you focus or help others around you. I'm not saying advancing the common good is bad at all. I'm just saying that its better to focus on yourself.</t>
   </si>
   <si>
+    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33069</t>
   </si>
   <si>
     <t>Human nature is to endeavor personal pursuit. If you assume that human nature is to endeavor advancing the common good, then you're going to get screwed by someone who endeavors personal pursuit. Most Americans endeavor advancing the common good; which is why they get screwed by politicians who endeavor personal pursuit. If everyone endeavors personal pursuit, then we would keep each other in check. It is easier to get most people to endeavor personal pursuit than it is to get most people to endeavor advancing the common good; which is why communism failed.</t>
   </si>
   <si>
+    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
+  </si>
+  <si>
     <t>arg33146</t>
   </si>
   <si>
     <t>Personal pursuit is better in my opinion. How are you going to reach common good if you cant better yourself. People may see that as being selfish but you cant help others if you cant help yourself.</t>
   </si>
   <si>
+    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33118</t>
   </si>
   <si>
     <t>I believe personal pursuit its better, because its your job to decide what you want to do with your life. Your not always going to have someone by your side telling you whats right or wrong. Its all on you of reaching their goals. Its also a good thing to help other reach their succeed their goals.</t>
   </si>
   <si>
+    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33150</t>
   </si>
   <si>
     <t>I think that personal pursuit is better because i think that helping yourself before others is natural. I think that no matter what you do everything comes back you even if your helping others, because you dont want your life to be out of whack helping others.</t>
   </si>
   <si>
+    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
+  </si>
+  <si>
     <t>arg33057</t>
   </si>
   <si>
     <t>I feel like a personal pursuit is better. You can't help others around you if you can't help yourself. If your personal pursuit is to make money for the needy or the common good, then it starts with you and your desire to make that money. A personal pursuit isn't always about money but it can also about happiness, love, and success.</t>
   </si>
   <si>
+    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
+  </si>
+  <si>
     <t>arg33144</t>
   </si>
   <si>
     <t>I thing personal pursuit because i believe that you have to help yourself first to accomplish your goals because how can you help someone if you dont help yourself. Helping yourself first would make you a better person and i think that after you achieve your goals and becoming a better person you would be able to help the common good.</t>
   </si>
   <si>
+    <t>336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33143</t>
   </si>
   <si>
@@ -224,10 +319,16 @@
     <t>At the moment, I would have to choose a Personal Pursuit, I have goals set and would like to have them accomplished before I can begin to help others. Although I do enjoy helping others, it is "I" who I must help first.</t>
   </si>
   <si>
+    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33111</t>
   </si>
   <si>
     <t>Honestly I believe that both are good there is no better in this arguement, because they both have that significance and they balance each other out. Personal pursuit because you improve your self for others and the enviorment around you, and then advancing the common good, because the goods help you and others improve. Life isn't perfect and we don't live in a perfect world and I don't expect it to be that way. These two are no different nor are they the same but they are significant.</t>
+  </si>
+  <si>
+    <t>490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -235,40 +336,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -276,361 +381,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="136.698979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="8.93877551020408"/>
+    <col customWidth="1" max="2" min="2" style="1" width="136.698979591837"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
     </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="36" ht="12.8" spans="1:3">
+      <c s="0" r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c s="0" r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/common_good_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/common_good_contra.xlsx
@@ -28,7 +28,7 @@
     <t>A personal pursuit is a better endeavor because you are fulfilling something within yourself. It is important to help others but there is a time to do so. Achieving a personal goal is a journey to fulfillment where one is truly happy. Before helping others you must remember about yourself, but you must not forget about those who are really in need.</t>
   </si>
   <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
   </si>
   <si>
     <t>arg33101</t>
@@ -37,7 +37,7 @@
     <t>Personal pursuit is better because people will be people and want to be the best they can be and they want to be on the top. I know I want to be a "winner". Which by this happening it means that someone has to be a loser. This is personal pursuit.</t>
   </si>
   <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
   </si>
   <si>
     <t>arg33125</t>
@@ -46,7 +46,7 @@
     <t>I think that focusing on a personal persuit comes first, going to college, having a career, and reaching a position of power. I don't think there really is a day when you will announce to the world that your going to advance the common good, but you can help people here and there, donating a little bit of time, donating a little money, but in the end if your ever in the position of power and have money you could truly advance the common good.</t>
   </si>
   <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
   </si>
   <si>
     <t>arg33053</t>
@@ -55,7 +55,7 @@
     <t>In my personal opinion if you better yourself in the long run you can better the world. I mean you have to focus on yourself before you can take on the problems of the world and trying to fix them, or you will end up having a break down or something.</t>
   </si>
   <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3</t>
   </si>
   <si>
     <t>arg33070</t>
@@ -64,7 +64,7 @@
     <t>I believe it is more important to have personal pursuit because if you even want to begin to help others you have to help yourself. It's not bad to want to help the common good but if you're always putting other people before yourself you may start to forget about your own needs and wants in life. But I do think that you can have a balance of both.</t>
   </si>
   <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77</t>
   </si>
   <si>
     <t>arg33121</t>
@@ -73,7 +73,7 @@
     <t>Our animal insctinc is survival, its what makes us flinch wen we see something coming at ous it makes us react faster, our mental state changes. In todays post modern world, our instinc have change into keep obtaining money to keep ous alive. times change but our desire to survive above other is still thier.</t>
   </si>
   <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
   </si>
   <si>
     <t>arg33115</t>
@@ -82,7 +82,7 @@
     <t>I think i will go with personal persuit because no matter what we do we think of ourself first. I think its the human nature.But personal pursuit does not mean being selfish and only caring about oneself.I need to think about me first,success and then think of others. Everyone does think of themselves before thinking about others. First i need to make me happy to make others happy. This way i can make my life better and be who i am.</t>
   </si>
   <si>
-    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
+    <t>16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
   </si>
   <si>
     <t>arg33102</t>
@@ -91,7 +91,7 @@
     <t>Unfortunately it is human nature to be selfish. This doesn't always mean that you are going to be a mean person and always do what is best for you, but an individual will usually help himself first. Sometimes in a good situation going out on your own personal pursuit does advance the common good. Neither is necessarily better but I believe that a personal pursuit might be more useful we only live this life for so long and we want to be the best we can be. Maybe your personal pursuit is to advance the common good.</t>
   </si>
   <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
   </si>
   <si>
     <t>arg33145</t>
@@ -100,7 +100,7 @@
     <t>I feel that a personal pursuit is a better endeavor. Your personal pursuit should come first before anyone else's. But then again I really don't know, because if someone in your family is in need of something then you're going to do anything help that family member out. I believe that helping someone in your family is just something you do no matter what because they're blood. If someone who you don't know is in need at the same time as someone who is related to you, you're going to help the family member out instead of the random person you don't know.</t>
   </si>
   <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>arg33167</t>
@@ -109,7 +109,7 @@
     <t>I believe that personal pursuit is better because in order to help others you have to help yoursel first. I also think that if you are happy with yourself and enjoy helping others you have the confidence and strength to help the outside world while satisfying yourself. For example, someone wants to succeed in life and through that he achieves his goals, whenever he is already succesful and with money he decides to help others.</t>
   </si>
   <si>
-    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
+    <t>25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
   </si>
   <si>
     <t>arg33088</t>
@@ -118,7 +118,7 @@
     <t>I feel like it is better to do both, but in order to help others you need to help yourself. It all starts with your personal goals before you can help others.</t>
   </si>
   <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
   </si>
   <si>
     <t>arg33173</t>
@@ -127,7 +127,7 @@
     <t>A personal pursuit is more important to me, because every person is responsible for themselves and their own actions. Advancing the common good would just mean that one or two people may not have to work as hard as you would for the same thing because of something you may have done. A personal pursuit can never be inequal. You'll always be able to dig yourself as deep into a hole as you want to, but standing as one person rather than many, you could probably dig faster if you were alone.</t>
   </si>
   <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
   </si>
   <si>
     <t>arg33073</t>
@@ -136,7 +136,7 @@
     <t>I believe a personal pursuit is better for me because I'm more of a selfish person. I rather do something that is going to better my life, but every once in a while I do have my giving moments, so I guess it depends on how I am feeling. Right now I am going to go for the personal pursuit.</t>
   </si>
   <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
   </si>
   <si>
     <t>arg33123</t>
@@ -145,7 +145,7 @@
     <t>In order to help advance a common good, you must first realize what is your common good. You have to know when you are that better person to then spread your good to other people. You can't just assume that you are a great person if you don't have anything to show it. If you desire to see a world full of all this goodness, YOU have to be that spark that starts the fire.</t>
   </si>
   <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11</t>
   </si>
   <si>
     <t>arg33157</t>
@@ -154,7 +154,7 @@
     <t>If i say that advencing the commen good is better then a personal pursuit, then i would be lieing to myself. Everyone wants to do good in the world, but the problem with that is that their is too many bad things happening in the world, and what you do wont really make a difference. A personal persuit does more for you then trying to advance the commen good in a world where you see very little good.</t>
   </si>
   <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
   </si>
   <si>
     <t>arg33165</t>
@@ -163,7 +163,7 @@
     <t>Personal pursuit is better because its easier to help yourself then it is to help others. Plus not all people want to be helped. A persons' need is more important then others need, you need to your personal pursuits first. In this world you have to fight for what you want.</t>
   </si>
   <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
   </si>
   <si>
     <t>arg33126</t>
@@ -172,7 +172,7 @@
     <t>Helping others for the common good can give you a feeling of pride but you have to have the means to be able to help the other person. To have those means you first have to have personal pursuit. I don't think one is better than the other but you first have to have personal pursuit before you can have common good. However for some people their personal pursuit can be the advancement of the common good.</t>
   </si>
   <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
   </si>
   <si>
     <t>arg33054</t>
@@ -181,7 +181,7 @@
     <t>I believe personal persuit. Human nature is for someone to persue things for themselves, not for others.</t>
   </si>
   <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>arg33105</t>
@@ -190,7 +190,7 @@
     <t>it is better to help yourself before you can help others. for instance, if you don't have your life together how are you going to help someone else with theirs. if your still living at home with your mother and you don't have a job and one want to help out by giving to an organization you couldn't do it. so basically you have to help yourself before you can help others.</t>
   </si>
   <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56</t>
   </si>
   <si>
     <t>arg33128</t>
@@ -199,7 +199,7 @@
     <t>Well for me its a kind of a 50/50. I think that evryone should be less selfish and do things that are "advancing the common good", but then again on the other hand we live in the real world and we are going to things that better benifit us. For example in your job your not going to try to make another employe, your going to try to make yourself look good so that you will get more money.</t>
   </si>
   <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
   </si>
   <si>
     <t>arg33142</t>
@@ -208,7 +208,7 @@
     <t>Personally i think that if you are not helping yourself you cant help no one else. If you try to help every person that needs your help, they will just slow you down. Don't get me wrong helping people is always right. In the big picture if you pursuit your dreams and get rich, fame, and power you will be able to help the people that matter to you.</t>
   </si>
   <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86</t>
   </si>
   <si>
     <t>arg33058</t>
@@ -217,7 +217,7 @@
     <t>I believe that personal pursuit is better because one must themselves happy before they can go out into the world and try to make everyone else happy. If you try to make everyone else happy and you leave no time for you, then you become a wreak and then you have no happiness in your life. Some people find that helping others is their own pursuit of happiness.</t>
   </si>
   <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
   </si>
   <si>
     <t>arg33091</t>
@@ -226,7 +226,7 @@
     <t>A personal pursuit of mine has always been to be the best pole vaulter that I can be, or the best at anything you do. I have learned that while trying to achieve this personal goal I have learned so much about trying to be a more responsible and more obedient. I believe in pursuing personal pursuit and personal goals is a better endeavor simply because if you strive to be good at something, it will help you grow as a person. From my personal experience, pursuing a personal goal has helped other people in this world.</t>
   </si>
   <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
   </si>
   <si>
     <t>arg33158</t>
@@ -235,7 +235,7 @@
     <t>Obviously everybody wants to say that they would help mankind, the world or save the city, but only a small percent of people would actually do this. I honestly would like to help mankind. I would like to save the world, but I'm posting under personal pursuit because I do not know what I would do in one of these situations.  Anyway, if people did believe in the advancement of the common good all of the economical cars and factories wouldn't just now be made. These inventions would have come out as soon as the theory of global warming came out.</t>
   </si>
   <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
   </si>
   <si>
     <t>arg33127</t>
@@ -244,7 +244,7 @@
     <t>I think that personal pursuit is more important because in order to help others you have to help yourself first. At the time it may seem selfish but once that you get to a point that you are good at what your doing then you can help others do the same. So not only are you helping yourself but you are also helping others.</t>
   </si>
   <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56</t>
   </si>
   <si>
     <t>arg33159</t>
@@ -253,7 +253,7 @@
     <t>I believe that Personal pursuit is better because its more about you then it is about other people. if you cant focus on you personally how can you focus or help others around you. I'm not saying advancing the common good is bad at all. I'm just saying that its better to focus on yourself.</t>
   </si>
   <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
   </si>
   <si>
     <t>arg33069</t>
@@ -262,7 +262,7 @@
     <t>Human nature is to endeavor personal pursuit. If you assume that human nature is to endeavor advancing the common good, then you're going to get screwed by someone who endeavors personal pursuit. Most Americans endeavor advancing the common good; which is why they get screwed by politicians who endeavor personal pursuit. If everyone endeavors personal pursuit, then we would keep each other in check. It is easier to get most people to endeavor personal pursuit than it is to get most people to endeavor advancing the common good; which is why communism failed.</t>
   </si>
   <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
   </si>
   <si>
     <t>arg33146</t>
@@ -271,7 +271,7 @@
     <t>Personal pursuit is better in my opinion. How are you going to reach common good if you cant better yourself. People may see that as being selfish but you cant help others if you cant help yourself.</t>
   </si>
   <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13</t>
   </si>
   <si>
     <t>arg33118</t>
@@ -280,7 +280,7 @@
     <t>I believe personal pursuit its better, because its your job to decide what you want to do with your life. Your not always going to have someone by your side telling you whats right or wrong. Its all on you of reaching their goals. Its also a good thing to help other reach their succeed their goals.</t>
   </si>
   <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0</t>
   </si>
   <si>
     <t>arg33150</t>
@@ -289,7 +289,7 @@
     <t>I think that personal pursuit is better because i think that helping yourself before others is natural. I think that no matter what you do everything comes back you even if your helping others, because you dont want your life to be out of whack helping others.</t>
   </si>
   <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
   </si>
   <si>
     <t>arg33057</t>
@@ -298,7 +298,7 @@
     <t>I feel like a personal pursuit is better. You can't help others around you if you can't help yourself. If your personal pursuit is to make money for the needy or the common good, then it starts with you and your desire to make that money. A personal pursuit isn't always about money but it can also about happiness, love, and success.</t>
   </si>
   <si>
-    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
+    <t>15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
   </si>
   <si>
     <t>arg33144</t>
@@ -307,7 +307,7 @@
     <t>I thing personal pursuit because i believe that you have to help yourself first to accomplish your goals because how can you help someone if you dont help yourself. Helping yourself first would make you a better person and i think that after you achieve your goals and becoming a better person you would be able to help the common good.</t>
   </si>
   <si>
-    <t>336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+    <t>30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
   </si>
   <si>
     <t>arg33143</t>
@@ -319,7 +319,7 @@
     <t>At the moment, I would have to choose a Personal Pursuit, I have goals set and would like to have them accomplished before I can begin to help others. Although I do enjoy helping others, it is "I" who I must help first.</t>
   </si>
   <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
   </si>
   <si>
     <t>arg33111</t>
@@ -328,7 +328,7 @@
     <t>Honestly I believe that both are good there is no better in this arguement, because they both have that significance and they balance each other out. Personal pursuit because you improve your self for others and the enviorment around you, and then advancing the common good, because the goods help you and others improve. Life isn't perfect and we don't live in a perfect world and I don't expect it to be that way. These two are no different nor are they the same but they are significant.</t>
   </si>
   <si>
-    <t>490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
   </si>
 </sst>
 </file>
